--- a/df_log_20250311.xlsx
+++ b/df_log_20250311.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGCNS\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D81E580-9ACB-4527-9812-65C36987982F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$211</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RdMeyBl/zyqtQMHYSbYokUHGp2qhpCJryIVFy9vc2l8="/>
@@ -2465,26 +2475,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2493,11 +2512,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2511,39 +2536,39 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2733,23 +2758,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K109" sqref="K109"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2790,7 +2819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2813,7 +2842,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>20</v>
@@ -2822,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2845,16 +2874,16 @@
         <v>25</v>
       </c>
       <c r="K3" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="L3" s="4">
-        <v>45726.0</v>
+        <v>45726</v>
       </c>
       <c r="M3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2877,7 +2906,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
@@ -2886,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -2909,7 +2938,7 @@
         <v>37</v>
       </c>
       <c r="K5" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>38</v>
@@ -2918,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -2941,7 +2970,7 @@
         <v>19</v>
       </c>
       <c r="K6" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>43</v>
@@ -2950,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2973,7 +3002,7 @@
         <v>48</v>
       </c>
       <c r="K7" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>49</v>
@@ -2982,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -3005,7 +3034,7 @@
         <v>54</v>
       </c>
       <c r="K8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>43</v>
@@ -3014,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -3037,7 +3066,7 @@
         <v>48</v>
       </c>
       <c r="K9" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>20</v>
@@ -3046,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -3072,7 +3101,7 @@
         <v>62</v>
       </c>
       <c r="K10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>63</v>
@@ -3081,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
@@ -3107,7 +3136,7 @@
         <v>68</v>
       </c>
       <c r="K11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>69</v>
@@ -3116,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -3142,7 +3171,7 @@
         <v>73</v>
       </c>
       <c r="K12" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>69</v>
@@ -3151,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
@@ -3177,7 +3206,7 @@
         <v>73</v>
       </c>
       <c r="K13" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>78</v>
@@ -3186,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
@@ -3209,7 +3238,7 @@
         <v>54</v>
       </c>
       <c r="K14" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>82</v>
@@ -3218,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>83</v>
       </c>
@@ -3244,7 +3273,7 @@
         <v>62</v>
       </c>
       <c r="K15" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>63</v>
@@ -3253,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -3279,7 +3308,7 @@
         <v>89</v>
       </c>
       <c r="K16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>63</v>
@@ -3288,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
@@ -3314,7 +3343,7 @@
         <v>54</v>
       </c>
       <c r="K17" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>82</v>
@@ -3323,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>96</v>
       </c>
@@ -3349,7 +3378,7 @@
         <v>48</v>
       </c>
       <c r="K18" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>63</v>
@@ -3358,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>101</v>
       </c>
@@ -3384,7 +3413,7 @@
         <v>48</v>
       </c>
       <c r="K19" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>63</v>
@@ -3393,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>105</v>
       </c>
@@ -3422,7 +3451,7 @@
         <v>48</v>
       </c>
       <c r="K20" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>63</v>
@@ -3431,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>109</v>
       </c>
@@ -3454,7 +3483,7 @@
         <v>48</v>
       </c>
       <c r="K21" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>82</v>
@@ -3463,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>113</v>
       </c>
@@ -3492,7 +3521,7 @@
         <v>48</v>
       </c>
       <c r="K22" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>63</v>
@@ -3501,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>119</v>
       </c>
@@ -3530,7 +3559,7 @@
         <v>48</v>
       </c>
       <c r="K23" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>63</v>
@@ -3539,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>124</v>
       </c>
@@ -3565,7 +3594,7 @@
         <v>62</v>
       </c>
       <c r="K24" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>63</v>
@@ -3574,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>127</v>
       </c>
@@ -3603,7 +3632,7 @@
         <v>19</v>
       </c>
       <c r="K25" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>63</v>
@@ -3612,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>132</v>
       </c>
@@ -3638,7 +3667,7 @@
         <v>19</v>
       </c>
       <c r="K26" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>136</v>
@@ -3647,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>137</v>
       </c>
@@ -3670,7 +3699,7 @@
         <v>89</v>
       </c>
       <c r="K27" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>63</v>
@@ -3679,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>140</v>
       </c>
@@ -3705,7 +3734,7 @@
         <v>68</v>
       </c>
       <c r="K28" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>63</v>
@@ -3714,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>144</v>
       </c>
@@ -3740,7 +3769,7 @@
         <v>62</v>
       </c>
       <c r="K29" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>63</v>
@@ -3749,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>147</v>
       </c>
@@ -3775,7 +3804,7 @@
         <v>62</v>
       </c>
       <c r="K30" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>63</v>
@@ -3784,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>150</v>
       </c>
@@ -3810,7 +3839,7 @@
         <v>54</v>
       </c>
       <c r="K31" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>63</v>
@@ -3819,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>154</v>
       </c>
@@ -3845,7 +3874,7 @@
         <v>73</v>
       </c>
       <c r="K32" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>63</v>
@@ -3854,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>157</v>
       </c>
@@ -3880,7 +3909,7 @@
         <v>54</v>
       </c>
       <c r="K33" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>63</v>
@@ -3889,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>160</v>
       </c>
@@ -3912,7 +3941,7 @@
         <v>163</v>
       </c>
       <c r="K34" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>20</v>
@@ -3921,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>164</v>
       </c>
@@ -3947,7 +3976,7 @@
         <v>19</v>
       </c>
       <c r="K35" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>63</v>
@@ -3956,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
@@ -3982,7 +4011,7 @@
         <v>19</v>
       </c>
       <c r="K36" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>63</v>
@@ -3991,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>170</v>
       </c>
@@ -4020,7 +4049,7 @@
         <v>19</v>
       </c>
       <c r="K37" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>63</v>
@@ -4029,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>174</v>
       </c>
@@ -4058,16 +4087,16 @@
         <v>19</v>
       </c>
       <c r="K38" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L38" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M38" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>177</v>
       </c>
@@ -4096,7 +4125,7 @@
         <v>19</v>
       </c>
       <c r="K39" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>63</v>
@@ -4105,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>180</v>
       </c>
@@ -4134,16 +4163,16 @@
         <v>19</v>
       </c>
       <c r="K40" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L40" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M40" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>183</v>
       </c>
@@ -4166,7 +4195,7 @@
         <v>19</v>
       </c>
       <c r="K41" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>187</v>
@@ -4175,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>188</v>
       </c>
@@ -4204,7 +4233,7 @@
         <v>19</v>
       </c>
       <c r="K42" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>63</v>
@@ -4213,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>192</v>
       </c>
@@ -4242,7 +4271,7 @@
         <v>197</v>
       </c>
       <c r="K43" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>63</v>
@@ -4251,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>198</v>
       </c>
@@ -4277,16 +4306,16 @@
         <v>19</v>
       </c>
       <c r="K44" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L44" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M44" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>202</v>
       </c>
@@ -4315,7 +4344,7 @@
         <v>197</v>
       </c>
       <c r="K45" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>63</v>
@@ -4324,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>205</v>
       </c>
@@ -4350,7 +4379,7 @@
         <v>208</v>
       </c>
       <c r="K46" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>63</v>
@@ -4359,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>209</v>
       </c>
@@ -4385,7 +4414,7 @@
         <v>19</v>
       </c>
       <c r="K47" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>63</v>
@@ -4394,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>212</v>
       </c>
@@ -4420,16 +4449,16 @@
         <v>19</v>
       </c>
       <c r="K48" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L48" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M48" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>215</v>
       </c>
@@ -4455,7 +4484,7 @@
         <v>48</v>
       </c>
       <c r="K49" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>63</v>
@@ -4464,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>218</v>
       </c>
@@ -4490,7 +4519,7 @@
         <v>19</v>
       </c>
       <c r="K50" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>63</v>
@@ -4499,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>221</v>
       </c>
@@ -4528,7 +4557,7 @@
         <v>19</v>
       </c>
       <c r="K51" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>63</v>
@@ -4537,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>225</v>
       </c>
@@ -4566,7 +4595,7 @@
         <v>19</v>
       </c>
       <c r="K52" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>63</v>
@@ -4575,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>230</v>
       </c>
@@ -4604,7 +4633,7 @@
         <v>19</v>
       </c>
       <c r="K53" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>63</v>
@@ -4613,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>233</v>
       </c>
@@ -4642,7 +4671,7 @@
         <v>19</v>
       </c>
       <c r="K54" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>63</v>
@@ -4651,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>236</v>
       </c>
@@ -4680,7 +4709,7 @@
         <v>19</v>
       </c>
       <c r="K55" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>63</v>
@@ -4689,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>239</v>
       </c>
@@ -4718,7 +4747,7 @@
         <v>54</v>
       </c>
       <c r="K56" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>63</v>
@@ -4727,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>243</v>
       </c>
@@ -4753,7 +4782,7 @@
         <v>19</v>
       </c>
       <c r="K57" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>63</v>
@@ -4762,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>246</v>
       </c>
@@ -4791,16 +4820,16 @@
         <v>251</v>
       </c>
       <c r="K58" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L58" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>252</v>
       </c>
@@ -4826,7 +4855,7 @@
         <v>48</v>
       </c>
       <c r="K59" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>63</v>
@@ -4835,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>255</v>
       </c>
@@ -4861,7 +4890,7 @@
         <v>19</v>
       </c>
       <c r="K60" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>82</v>
@@ -4870,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>258</v>
       </c>
@@ -4896,7 +4925,7 @@
         <v>19</v>
       </c>
       <c r="K61" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>63</v>
@@ -4905,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>261</v>
       </c>
@@ -4934,7 +4963,7 @@
         <v>197</v>
       </c>
       <c r="K62" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>63</v>
@@ -4943,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>264</v>
       </c>
@@ -4966,7 +4995,7 @@
         <v>19</v>
       </c>
       <c r="K63" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>63</v>
@@ -4975,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>268</v>
       </c>
@@ -5004,16 +5033,16 @@
         <v>54</v>
       </c>
       <c r="K64" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L64" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M64" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>273</v>
       </c>
@@ -5042,7 +5071,7 @@
         <v>197</v>
       </c>
       <c r="K65" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>63</v>
@@ -5051,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>276</v>
       </c>
@@ -5080,7 +5109,7 @@
         <v>281</v>
       </c>
       <c r="K66" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>63</v>
@@ -5089,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>282</v>
       </c>
@@ -5118,7 +5147,7 @@
         <v>197</v>
       </c>
       <c r="K67" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>63</v>
@@ -5127,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>285</v>
       </c>
@@ -5153,7 +5182,7 @@
         <v>48</v>
       </c>
       <c r="K68" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>63</v>
@@ -5162,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>288</v>
       </c>
@@ -5188,7 +5217,7 @@
         <v>30</v>
       </c>
       <c r="K69" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>63</v>
@@ -5197,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>291</v>
       </c>
@@ -5223,7 +5252,7 @@
         <v>19</v>
       </c>
       <c r="K70" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>63</v>
@@ -5232,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>294</v>
       </c>
@@ -5258,7 +5287,7 @@
         <v>30</v>
       </c>
       <c r="K71" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>63</v>
@@ -5267,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>297</v>
       </c>
@@ -5293,7 +5322,7 @@
         <v>68</v>
       </c>
       <c r="K72" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>63</v>
@@ -5302,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>300</v>
       </c>
@@ -5328,7 +5357,7 @@
         <v>30</v>
       </c>
       <c r="K73" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>63</v>
@@ -5337,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>303</v>
       </c>
@@ -5363,7 +5392,7 @@
         <v>208</v>
       </c>
       <c r="K74" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>63</v>
@@ -5372,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>306</v>
       </c>
@@ -5398,7 +5427,7 @@
         <v>19</v>
       </c>
       <c r="K75" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>63</v>
@@ -5407,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>309</v>
       </c>
@@ -5433,7 +5462,7 @@
         <v>314</v>
       </c>
       <c r="K76" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>63</v>
@@ -5442,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>315</v>
       </c>
@@ -5471,7 +5500,7 @@
         <v>89</v>
       </c>
       <c r="K77" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>63</v>
@@ -5480,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>319</v>
       </c>
@@ -5506,7 +5535,7 @@
         <v>48</v>
       </c>
       <c r="K78" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>63</v>
@@ -5515,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>322</v>
       </c>
@@ -5541,7 +5570,7 @@
         <v>326</v>
       </c>
       <c r="K79" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>63</v>
@@ -5550,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>327</v>
       </c>
@@ -5576,7 +5605,7 @@
         <v>48</v>
       </c>
       <c r="K80" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>63</v>
@@ -5585,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>330</v>
       </c>
@@ -5614,16 +5643,16 @@
         <v>19</v>
       </c>
       <c r="K81" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L81" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M81" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>334</v>
       </c>
@@ -5649,7 +5678,7 @@
         <v>54</v>
       </c>
       <c r="K82" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>63</v>
@@ -5658,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>338</v>
       </c>
@@ -5687,7 +5716,7 @@
         <v>342</v>
       </c>
       <c r="K83" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>63</v>
@@ -5696,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>343</v>
       </c>
@@ -5722,7 +5751,7 @@
         <v>48</v>
       </c>
       <c r="K84" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>63</v>
@@ -5731,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>346</v>
       </c>
@@ -5754,7 +5783,7 @@
         <v>89</v>
       </c>
       <c r="K85" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>63</v>
@@ -5763,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>349</v>
       </c>
@@ -5792,7 +5821,7 @@
         <v>342</v>
       </c>
       <c r="K86" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>63</v>
@@ -5801,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>353</v>
       </c>
@@ -5827,7 +5856,7 @@
         <v>62</v>
       </c>
       <c r="K87" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>63</v>
@@ -5836,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>356</v>
       </c>
@@ -5865,7 +5894,7 @@
         <v>89</v>
       </c>
       <c r="K88" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>63</v>
@@ -5874,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>359</v>
       </c>
@@ -5900,7 +5929,7 @@
         <v>19</v>
       </c>
       <c r="K89" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>63</v>
@@ -5909,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>362</v>
       </c>
@@ -5932,7 +5961,7 @@
         <v>19</v>
       </c>
       <c r="K90" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>82</v>
@@ -5941,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>366</v>
       </c>
@@ -5967,7 +5996,7 @@
         <v>48</v>
       </c>
       <c r="K91" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>63</v>
@@ -5976,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>369</v>
       </c>
@@ -6002,7 +6031,7 @@
         <v>68</v>
       </c>
       <c r="K92" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>63</v>
@@ -6011,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>372</v>
       </c>
@@ -6037,7 +6066,7 @@
         <v>19</v>
       </c>
       <c r="K93" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>63</v>
@@ -6046,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>375</v>
       </c>
@@ -6072,7 +6101,7 @@
         <v>19</v>
       </c>
       <c r="K94" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>63</v>
@@ -6081,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>378</v>
       </c>
@@ -6104,7 +6133,7 @@
         <v>19</v>
       </c>
       <c r="K95" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>82</v>
@@ -6113,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>381</v>
       </c>
@@ -6142,16 +6171,16 @@
         <v>19</v>
       </c>
       <c r="K96" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L96" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M96" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>386</v>
       </c>
@@ -6180,7 +6209,7 @@
         <v>19</v>
       </c>
       <c r="K97" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>63</v>
@@ -6189,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>390</v>
       </c>
@@ -6215,7 +6244,7 @@
         <v>19</v>
       </c>
       <c r="K98" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>63</v>
@@ -6224,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>394</v>
       </c>
@@ -6253,7 +6282,7 @@
         <v>19</v>
       </c>
       <c r="K99" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>63</v>
@@ -6262,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>397</v>
       </c>
@@ -6288,7 +6317,7 @@
         <v>48</v>
       </c>
       <c r="K100" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>63</v>
@@ -6297,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>400</v>
       </c>
@@ -6320,7 +6349,7 @@
         <v>403</v>
       </c>
       <c r="K101" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>63</v>
@@ -6329,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>404</v>
       </c>
@@ -6355,7 +6384,7 @@
         <v>48</v>
       </c>
       <c r="K102" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>63</v>
@@ -6364,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>407</v>
       </c>
@@ -6390,7 +6419,7 @@
         <v>48</v>
       </c>
       <c r="K103" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>63</v>
@@ -6399,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>410</v>
       </c>
@@ -6431,7 +6460,7 @@
         <v>415</v>
       </c>
       <c r="K104" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>63</v>
@@ -6440,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>416</v>
       </c>
@@ -6472,7 +6501,7 @@
         <v>421</v>
       </c>
       <c r="K105" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>63</v>
@@ -6481,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>422</v>
       </c>
@@ -6507,7 +6536,7 @@
         <v>19</v>
       </c>
       <c r="K106" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>63</v>
@@ -6516,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>425</v>
       </c>
@@ -6539,7 +6568,7 @@
         <v>19</v>
       </c>
       <c r="K107" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>43</v>
@@ -6548,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>428</v>
       </c>
@@ -6577,7 +6606,7 @@
         <v>19</v>
       </c>
       <c r="K108" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>63</v>
@@ -6586,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>432</v>
       </c>
@@ -6618,16 +6647,16 @@
         <v>435</v>
       </c>
       <c r="K109" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="L109" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M109" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>436</v>
       </c>
@@ -6653,7 +6682,7 @@
         <v>54</v>
       </c>
       <c r="K110" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>63</v>
@@ -6662,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>439</v>
       </c>
@@ -6691,7 +6720,7 @@
         <v>19</v>
       </c>
       <c r="K111" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>63</v>
@@ -6700,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>444</v>
       </c>
@@ -6729,16 +6758,16 @@
         <v>19</v>
       </c>
       <c r="K112" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L112" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M112" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>447</v>
       </c>
@@ -6767,7 +6796,7 @@
         <v>19</v>
       </c>
       <c r="K113" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>63</v>
@@ -6776,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>451</v>
       </c>
@@ -6802,7 +6831,7 @@
         <v>19</v>
       </c>
       <c r="K114" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>454</v>
@@ -6811,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>455</v>
       </c>
@@ -6834,7 +6863,7 @@
         <v>54</v>
       </c>
       <c r="K115" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>458</v>
@@ -6843,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>459</v>
       </c>
@@ -6872,7 +6901,7 @@
         <v>19</v>
       </c>
       <c r="K116" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>82</v>
@@ -6881,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>464</v>
       </c>
@@ -6904,7 +6933,7 @@
         <v>19</v>
       </c>
       <c r="K117" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>63</v>
@@ -6913,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>467</v>
       </c>
@@ -6942,16 +6971,16 @@
         <v>19</v>
       </c>
       <c r="K118" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L118" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M118" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>470</v>
       </c>
@@ -6980,7 +7009,7 @@
         <v>19</v>
       </c>
       <c r="K119" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>63</v>
@@ -6989,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>473</v>
       </c>
@@ -7018,7 +7047,7 @@
         <v>19</v>
       </c>
       <c r="K120" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>63</v>
@@ -7027,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>477</v>
       </c>
@@ -7056,7 +7085,7 @@
         <v>19</v>
       </c>
       <c r="K121" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>63</v>
@@ -7065,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>481</v>
       </c>
@@ -7091,7 +7120,7 @@
         <v>48</v>
       </c>
       <c r="K122" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>63</v>
@@ -7100,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>484</v>
       </c>
@@ -7126,16 +7155,16 @@
         <v>54</v>
       </c>
       <c r="K123" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L123" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M123" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>487</v>
       </c>
@@ -7167,7 +7196,7 @@
         <v>491</v>
       </c>
       <c r="K124" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>63</v>
@@ -7176,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>492</v>
       </c>
@@ -7205,16 +7234,16 @@
         <v>19</v>
       </c>
       <c r="K125" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L125" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M125" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>497</v>
       </c>
@@ -7243,16 +7272,16 @@
         <v>19</v>
       </c>
       <c r="K126" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L126" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M126" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>500</v>
       </c>
@@ -7278,7 +7307,7 @@
         <v>505</v>
       </c>
       <c r="K127" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>63</v>
@@ -7287,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>506</v>
       </c>
@@ -7316,7 +7345,7 @@
         <v>19</v>
       </c>
       <c r="K128" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>63</v>
@@ -7325,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>511</v>
       </c>
@@ -7351,7 +7380,7 @@
         <v>19</v>
       </c>
       <c r="K129" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>63</v>
@@ -7360,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>514</v>
       </c>
@@ -7383,16 +7412,16 @@
         <v>19</v>
       </c>
       <c r="K130" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L130" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M130" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>517</v>
       </c>
@@ -7421,7 +7450,7 @@
         <v>19</v>
       </c>
       <c r="K131" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>63</v>
@@ -7430,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>521</v>
       </c>
@@ -7459,7 +7488,7 @@
         <v>19</v>
       </c>
       <c r="K132" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>63</v>
@@ -7468,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>525</v>
       </c>
@@ -7497,7 +7526,7 @@
         <v>19</v>
       </c>
       <c r="K133" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>63</v>
@@ -7506,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>528</v>
       </c>
@@ -7535,16 +7564,16 @@
         <v>19</v>
       </c>
       <c r="K134" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L134" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M134" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>532</v>
       </c>
@@ -7573,7 +7602,7 @@
         <v>19</v>
       </c>
       <c r="K135" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>63</v>
@@ -7582,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>537</v>
       </c>
@@ -7608,7 +7637,7 @@
         <v>48</v>
       </c>
       <c r="K136" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>63</v>
@@ -7617,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>541</v>
       </c>
@@ -7643,7 +7672,7 @@
         <v>48</v>
       </c>
       <c r="K137" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>63</v>
@@ -7652,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>544</v>
       </c>
@@ -7678,7 +7707,7 @@
         <v>548</v>
       </c>
       <c r="K138" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>63</v>
@@ -7687,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>549</v>
       </c>
@@ -7713,7 +7742,7 @@
         <v>19</v>
       </c>
       <c r="K139" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>63</v>
@@ -7722,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>552</v>
       </c>
@@ -7748,7 +7777,7 @@
         <v>48</v>
       </c>
       <c r="K140" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>63</v>
@@ -7757,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>555</v>
       </c>
@@ -7786,7 +7815,7 @@
         <v>561</v>
       </c>
       <c r="K141" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>63</v>
@@ -7795,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>562</v>
       </c>
@@ -7818,7 +7847,7 @@
         <v>54</v>
       </c>
       <c r="K142" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>63</v>
@@ -7827,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>566</v>
       </c>
@@ -7853,16 +7882,16 @@
         <v>54</v>
       </c>
       <c r="K143" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L143" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M143" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>569</v>
       </c>
@@ -7891,7 +7920,7 @@
         <v>19</v>
       </c>
       <c r="K144" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>63</v>
@@ -7900,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>575</v>
       </c>
@@ -7926,7 +7955,7 @@
         <v>48</v>
       </c>
       <c r="K145" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>63</v>
@@ -7935,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>578</v>
       </c>
@@ -7961,7 +7990,7 @@
         <v>48</v>
       </c>
       <c r="K146" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>63</v>
@@ -7970,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>581</v>
       </c>
@@ -7996,7 +8025,7 @@
         <v>19</v>
       </c>
       <c r="K147" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>63</v>
@@ -8005,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>584</v>
       </c>
@@ -8031,7 +8060,7 @@
         <v>588</v>
       </c>
       <c r="K148" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>63</v>
@@ -8040,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>589</v>
       </c>
@@ -8066,7 +8095,7 @@
         <v>19</v>
       </c>
       <c r="K149" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>63</v>
@@ -8075,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>592</v>
       </c>
@@ -8101,7 +8130,7 @@
         <v>54</v>
       </c>
       <c r="K150" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>63</v>
@@ -8110,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>596</v>
       </c>
@@ -8136,7 +8165,7 @@
         <v>19</v>
       </c>
       <c r="K151" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>63</v>
@@ -8145,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>599</v>
       </c>
@@ -8168,7 +8197,7 @@
         <v>19</v>
       </c>
       <c r="K152" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>63</v>
@@ -8177,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>602</v>
       </c>
@@ -8203,7 +8232,7 @@
         <v>54</v>
       </c>
       <c r="K153" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>63</v>
@@ -8212,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>605</v>
       </c>
@@ -8241,7 +8270,7 @@
         <v>611</v>
       </c>
       <c r="K154" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>63</v>
@@ -8250,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>612</v>
       </c>
@@ -8276,7 +8305,7 @@
         <v>54</v>
       </c>
       <c r="K155" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>63</v>
@@ -8285,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>615</v>
       </c>
@@ -8314,7 +8343,7 @@
         <v>19</v>
       </c>
       <c r="K156" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>63</v>
@@ -8323,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>618</v>
       </c>
@@ -8349,16 +8378,16 @@
         <v>622</v>
       </c>
       <c r="K157" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="L157" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M157" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>623</v>
       </c>
@@ -8384,7 +8413,7 @@
         <v>54</v>
       </c>
       <c r="K158" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>63</v>
@@ -8393,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>627</v>
       </c>
@@ -8422,7 +8451,7 @@
         <v>197</v>
       </c>
       <c r="K159" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>63</v>
@@ -8431,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>630</v>
       </c>
@@ -8460,7 +8489,7 @@
         <v>197</v>
       </c>
       <c r="K160" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>63</v>
@@ -8469,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>633</v>
       </c>
@@ -8498,7 +8527,7 @@
         <v>54</v>
       </c>
       <c r="K161" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>63</v>
@@ -8507,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>636</v>
       </c>
@@ -8533,7 +8562,7 @@
         <v>19</v>
       </c>
       <c r="K162" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>63</v>
@@ -8542,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>639</v>
       </c>
@@ -8571,16 +8600,16 @@
         <v>197</v>
       </c>
       <c r="K163" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L163" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M163" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>644</v>
       </c>
@@ -8606,7 +8635,7 @@
         <v>54</v>
       </c>
       <c r="K164" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>63</v>
@@ -8615,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>648</v>
       </c>
@@ -8644,16 +8673,16 @@
         <v>54</v>
       </c>
       <c r="K165" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L165" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M165" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>651</v>
       </c>
@@ -8682,7 +8711,7 @@
         <v>197</v>
       </c>
       <c r="K166" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L166" s="2" t="s">
         <v>63</v>
@@ -8691,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>654</v>
       </c>
@@ -8717,7 +8746,7 @@
         <v>19</v>
       </c>
       <c r="K167" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L167" s="2" t="s">
         <v>63</v>
@@ -8726,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>658</v>
       </c>
@@ -8752,7 +8781,7 @@
         <v>54</v>
       </c>
       <c r="K168" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L168" s="2" t="s">
         <v>63</v>
@@ -8761,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>662</v>
       </c>
@@ -8787,16 +8816,16 @@
         <v>19</v>
       </c>
       <c r="K169" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L169" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M169" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>666</v>
       </c>
@@ -8822,16 +8851,16 @@
         <v>197</v>
       </c>
       <c r="K170" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L170" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M170" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>670</v>
       </c>
@@ -8857,7 +8886,7 @@
         <v>674</v>
       </c>
       <c r="K171" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L171" s="2" t="s">
         <v>63</v>
@@ -8866,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>675</v>
       </c>
@@ -8892,16 +8921,16 @@
         <v>48</v>
       </c>
       <c r="K172" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L172" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M172" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>678</v>
       </c>
@@ -8927,7 +8956,7 @@
         <v>19</v>
       </c>
       <c r="K173" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L173" s="2" t="s">
         <v>63</v>
@@ -8936,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>681</v>
       </c>
@@ -8962,16 +8991,16 @@
         <v>686</v>
       </c>
       <c r="K174" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L174" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M174" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>687</v>
       </c>
@@ -8997,7 +9026,7 @@
         <v>54</v>
       </c>
       <c r="K175" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L175" s="2" t="s">
         <v>63</v>
@@ -9006,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>690</v>
       </c>
@@ -9035,16 +9064,16 @@
         <v>197</v>
       </c>
       <c r="K176" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L176" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M176" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>693</v>
       </c>
@@ -9070,16 +9099,16 @@
         <v>698</v>
       </c>
       <c r="K177" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L177" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M177" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>699</v>
       </c>
@@ -9108,16 +9137,16 @@
         <v>197</v>
       </c>
       <c r="K178" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L178" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M178" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>702</v>
       </c>
@@ -9143,7 +9172,7 @@
         <v>19</v>
       </c>
       <c r="K179" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>63</v>
@@ -9152,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>705</v>
       </c>
@@ -9178,7 +9207,7 @@
         <v>48</v>
       </c>
       <c r="K180" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L180" s="2" t="s">
         <v>63</v>
@@ -9187,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>708</v>
       </c>
@@ -9210,7 +9239,7 @@
         <v>48</v>
       </c>
       <c r="K181" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L181" s="2" t="s">
         <v>711</v>
@@ -9219,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>712</v>
       </c>
@@ -9242,7 +9271,7 @@
         <v>48</v>
       </c>
       <c r="K182" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L182" s="2" t="s">
         <v>43</v>
@@ -9251,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>715</v>
       </c>
@@ -9277,7 +9306,7 @@
         <v>48</v>
       </c>
       <c r="K183" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L183" s="2" t="s">
         <v>63</v>
@@ -9286,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>718</v>
       </c>
@@ -9309,7 +9338,7 @@
         <v>48</v>
       </c>
       <c r="K184" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L184" s="2" t="s">
         <v>63</v>
@@ -9318,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>721</v>
       </c>
@@ -9344,7 +9373,7 @@
         <v>19</v>
       </c>
       <c r="K185" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L185" s="2" t="s">
         <v>63</v>
@@ -9353,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>725</v>
       </c>
@@ -9379,7 +9408,7 @@
         <v>314</v>
       </c>
       <c r="K186" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L186" s="2" t="s">
         <v>63</v>
@@ -9388,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>729</v>
       </c>
@@ -9414,7 +9443,7 @@
         <v>19</v>
       </c>
       <c r="K187" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L187" s="2" t="s">
         <v>63</v>
@@ -9423,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>732</v>
       </c>
@@ -9449,7 +9478,7 @@
         <v>735</v>
       </c>
       <c r="K188" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L188" s="2" t="s">
         <v>63</v>
@@ -9458,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>736</v>
       </c>
@@ -9487,7 +9516,7 @@
         <v>197</v>
       </c>
       <c r="K189" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>63</v>
@@ -9496,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>739</v>
       </c>
@@ -9522,7 +9551,7 @@
         <v>314</v>
       </c>
       <c r="K190" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L190" s="2" t="s">
         <v>63</v>
@@ -9531,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>742</v>
       </c>
@@ -9557,7 +9586,7 @@
         <v>314</v>
       </c>
       <c r="K191" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L191" s="2" t="s">
         <v>63</v>
@@ -9566,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>745</v>
       </c>
@@ -9589,7 +9618,7 @@
         <v>314</v>
       </c>
       <c r="K192" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L192" s="2" t="s">
         <v>43</v>
@@ -9598,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>748</v>
       </c>
@@ -9624,7 +9653,7 @@
         <v>19</v>
       </c>
       <c r="K193" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L193" s="2" t="s">
         <v>751</v>
@@ -9633,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>752</v>
       </c>
@@ -9656,7 +9685,7 @@
         <v>314</v>
       </c>
       <c r="K194" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>82</v>
@@ -9665,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>755</v>
       </c>
@@ -9691,7 +9720,7 @@
         <v>48</v>
       </c>
       <c r="K195" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L195" s="2" t="s">
         <v>63</v>
@@ -9700,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>759</v>
       </c>
@@ -9726,7 +9755,7 @@
         <v>314</v>
       </c>
       <c r="K196" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L196" s="2" t="s">
         <v>69</v>
@@ -9735,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>762</v>
       </c>
@@ -9761,7 +9790,7 @@
         <v>765</v>
       </c>
       <c r="K197" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L197" s="2" t="s">
         <v>63</v>
@@ -9770,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>766</v>
       </c>
@@ -9793,7 +9822,7 @@
         <v>314</v>
       </c>
       <c r="K198" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>82</v>
@@ -9802,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>769</v>
       </c>
@@ -9828,7 +9857,7 @@
         <v>772</v>
       </c>
       <c r="K199" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L199" s="2" t="s">
         <v>63</v>
@@ -9837,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>773</v>
       </c>
@@ -9860,7 +9889,7 @@
         <v>314</v>
       </c>
       <c r="K200" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L200" s="2" t="s">
         <v>776</v>
@@ -9869,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>777</v>
       </c>
@@ -9895,7 +9924,7 @@
         <v>772</v>
       </c>
       <c r="K201" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L201" s="2" t="s">
         <v>63</v>
@@ -9904,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>780</v>
       </c>
@@ -9927,7 +9956,7 @@
         <v>314</v>
       </c>
       <c r="K202" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L202" s="2" t="s">
         <v>776</v>
@@ -9936,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>783</v>
       </c>
@@ -9965,7 +9994,7 @@
         <v>19</v>
       </c>
       <c r="K203" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>63</v>
@@ -9974,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>788</v>
       </c>
@@ -10000,7 +10029,7 @@
         <v>314</v>
       </c>
       <c r="K204" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L204" s="2" t="s">
         <v>43</v>
@@ -10009,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>791</v>
       </c>
@@ -10038,16 +10067,16 @@
         <v>19</v>
       </c>
       <c r="K205" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L205" s="4">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="M205" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>795</v>
       </c>
@@ -10070,7 +10099,7 @@
         <v>314</v>
       </c>
       <c r="K206" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L206" s="2" t="s">
         <v>69</v>
@@ -10079,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>798</v>
       </c>
@@ -10105,7 +10134,7 @@
         <v>19</v>
       </c>
       <c r="K207" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L207" s="2" t="s">
         <v>63</v>
@@ -10114,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>801</v>
       </c>
@@ -10137,7 +10166,7 @@
         <v>314</v>
       </c>
       <c r="K208" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L208" s="2" t="s">
         <v>776</v>
@@ -10146,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>804</v>
       </c>
@@ -10172,7 +10201,7 @@
         <v>314</v>
       </c>
       <c r="K209" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L209" s="2" t="s">
         <v>63</v>
@@ -10181,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>808</v>
       </c>
@@ -10204,7 +10233,7 @@
         <v>314</v>
       </c>
       <c r="K210" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L210" s="2" t="s">
         <v>63</v>
@@ -10213,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>811</v>
       </c>
@@ -10236,809 +10265,808 @@
         <v>54</v>
       </c>
       <c r="K211" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L211" s="4">
-        <v>45726.0</v>
+        <v>45726</v>
       </c>
       <c r="M211" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="212" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="$A$1:$M$211"/>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:M211" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>